--- a/data/trans_dic/P32-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06017943141324848</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06140198799144603</v>
+        <v>0.06140198799144606</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.00771781351968784</v>
@@ -697,7 +697,7 @@
         <v>0.05492823836644744</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05177211953721616</v>
+        <v>0.05177211953721617</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003369398933769475</v>
+        <v>0.003389132945133537</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03204914752297416</v>
+        <v>0.03116434730481386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03468626574254542</v>
+        <v>0.03684930509068253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0361024997965864</v>
+        <v>0.03840796876360478</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007873212957519414</v>
+        <v>0.007813562272784303</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01846663619726734</v>
+        <v>0.01834235220528925</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01569372405569426</v>
+        <v>0.0162051730694132</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004467871688251968</v>
+        <v>0.004566421667822302</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02898986168933464</v>
+        <v>0.02839354789428803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03468658191433796</v>
+        <v>0.03396093994940137</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03410161218771025</v>
+        <v>0.0335704939175359</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03938828608217287</v>
+        <v>0.03801096760576168</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0939421162700335</v>
+        <v>0.09278590013257262</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09688290753457818</v>
+        <v>0.09744678687778491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09464948150114351</v>
+        <v>0.09923828412293473</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05743763425909595</v>
+        <v>0.04603373879256313</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08307745325134272</v>
+        <v>0.1003062734898007</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09707226896134039</v>
+        <v>0.09050505590087378</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07501072535339874</v>
+        <v>0.07098631128022398</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0307059035881643</v>
+        <v>0.02974465605921134</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07597208023845556</v>
+        <v>0.07948419222393026</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08287772696397765</v>
+        <v>0.08028028493609549</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07541841770852234</v>
+        <v>0.07539040582748541</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.04697241068853263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03985126514631426</v>
+        <v>0.03985126514631425</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01279729227546396</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004402984987183516</v>
+        <v>0.004798454842806474</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02979154001135293</v>
+        <v>0.02929719003307628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02460675963421955</v>
+        <v>0.02469079236461578</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01931341806784792</v>
+        <v>0.01863370806079935</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007939164047163053</v>
+        <v>0.0127491361501711</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01630048414531507</v>
+        <v>0.01664753171703538</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01974332326854289</v>
+        <v>0.02038025756571104</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005448410533194498</v>
+        <v>0.005628822572603423</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02834298898925333</v>
+        <v>0.02827722677455819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02573719000913554</v>
+        <v>0.02655794127971943</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02449363876895596</v>
+        <v>0.02354039539452565</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04359413111039384</v>
+        <v>0.04229132757366749</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1000453257427713</v>
+        <v>0.1004222041173092</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08336461711451612</v>
+        <v>0.0786931733157562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07352080240057254</v>
+        <v>0.07431399376712232</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04915212555674146</v>
+        <v>0.03894561604391479</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08514429564114206</v>
+        <v>0.09322544276543955</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0773614585659252</v>
+        <v>0.07648522255743186</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08269386293240941</v>
+        <v>0.08377258562224396</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03350988981368497</v>
+        <v>0.03230635779470464</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07949658366009567</v>
+        <v>0.07789812480968621</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06440671718720581</v>
+        <v>0.06474603931091451</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06542266769133717</v>
+        <v>0.06533395725522917</v>
       </c>
     </row>
     <row r="10">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01735457669402154</v>
+        <v>0.01751015583709828</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03514930817462517</v>
+        <v>0.03785794975187511</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01870444769423856</v>
+        <v>0.01908874428012575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04174434869008159</v>
+        <v>0.0408463487687914</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01744694102565479</v>
+        <v>0.017477820890559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01647326637608965</v>
+        <v>0.01661542616285411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0340416461727442</v>
+        <v>0.03357838945469614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02160358657310722</v>
+        <v>0.02254433551487301</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03435154874310042</v>
+        <v>0.03370748902998968</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0557842703826169</v>
+        <v>0.05778937593510513</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08588775134626585</v>
+        <v>0.08862956163847753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06200634600781305</v>
+        <v>0.06151866080152081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1142288017232378</v>
+        <v>0.1118677083612355</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09252566988496624</v>
+        <v>0.101834691104559</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08103786800998301</v>
+        <v>0.08395002215033551</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1512718292397602</v>
+        <v>0.1358057209923144</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08988909214746685</v>
+        <v>0.08547769057975249</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05249319575443093</v>
+        <v>0.05210131869680503</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07899955739372776</v>
+        <v>0.07934098090614301</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0600430159330267</v>
+        <v>0.06479656598323573</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09777843775612885</v>
+        <v>0.0956705997077712</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0190143438267511</v>
+        <v>0.01932123708238003</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05566893905639223</v>
+        <v>0.05625070261384302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0343540316149645</v>
+        <v>0.03442405985621246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03816839581190486</v>
+        <v>0.04091717373186519</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004235729353255728</v>
+        <v>0.004159666333228096</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01017288472449461</v>
+        <v>0.009456075224578886</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007298078421517649</v>
+        <v>0.009095574758423323</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01781888211575165</v>
+        <v>0.01688797855283204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04363729248047837</v>
+        <v>0.04222306438318626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02927642119856312</v>
+        <v>0.0302408693662966</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03363926050140452</v>
+        <v>0.03317990191392547</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0468924246248462</v>
+        <v>0.04662623840807757</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09986895843179394</v>
+        <v>0.09794345973580552</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07194436529559947</v>
+        <v>0.07082959978825917</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08407233923353329</v>
+        <v>0.08485684042826555</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04685190446251049</v>
+        <v>0.04634528581363174</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03493224260173249</v>
+        <v>0.03408706839191254</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04809730137412817</v>
+        <v>0.04592640712287651</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05988533006464346</v>
+        <v>0.069780515999249</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.042214080069829</v>
+        <v>0.03873662844888469</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07763604680656139</v>
+        <v>0.07654284500211395</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05768254122437356</v>
+        <v>0.05706315685079883</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07169469083035143</v>
+        <v>0.07094064422211938</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.05436369711969789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.090169315894711</v>
+        <v>0.09016931589471101</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0412969974174095</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009040002688323065</v>
+        <v>0.009060302250258116</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02994537709575739</v>
+        <v>0.02798503945278547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03090941011106243</v>
+        <v>0.03294725924664248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05948059564886096</v>
+        <v>0.05952409551104441</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01408628997099049</v>
+        <v>0.01502975789995673</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005829617980102094</v>
+        <v>0.005788957092478358</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01524347803032706</v>
+        <v>0.01583217306309414</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01524957498122404</v>
+        <v>0.01626170726413024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02429795278629026</v>
+        <v>0.02404858747946172</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02267152540886858</v>
+        <v>0.02311174873574499</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04764140746776199</v>
+        <v>0.0473925300764752</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06512972385360624</v>
+        <v>0.06178561708042427</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0791016703859098</v>
+        <v>0.07944365622200583</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08661473095995477</v>
+        <v>0.08570056081925813</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1384252029089645</v>
+        <v>0.1364923274630512</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08819260392135278</v>
+        <v>0.08928545150055706</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05285264656223225</v>
+        <v>0.05193814649694</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03448052504823849</v>
+        <v>0.03673721734011361</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0614130951546169</v>
+        <v>0.0644160289281743</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05466126054046416</v>
+        <v>0.05615572375491004</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06088101591925435</v>
+        <v>0.05787873116931821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0571242788625213</v>
+        <v>0.05912849417024933</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09627948914804679</v>
+        <v>0.0975098654909221</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.08461578711259085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09252588054840001</v>
+        <v>0.0925258805484</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.004315815498985226</v>
@@ -1377,7 +1377,7 @@
         <v>0.05916420783876443</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.04788471009428709</v>
+        <v>0.0478847100942871</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01448287439459351</v>
+        <v>0.0142505913886589</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09139890074949313</v>
+        <v>0.09299690630621742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0485235597935542</v>
+        <v>0.04612362818763632</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01659668389609265</v>
+        <v>0.01772375980146096</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003938182482800462</v>
+        <v>0.003628297149250153</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02184882677100617</v>
+        <v>0.02177915444018146</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.008288434836932184</v>
+        <v>0.007754198625479885</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03963160999939259</v>
+        <v>0.03775924917687568</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03904403507422662</v>
+        <v>0.03880771191112556</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0141626207486075</v>
+        <v>0.01388627250748122</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08180860478472934</v>
+        <v>0.08655383830978858</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2179748647650045</v>
+        <v>0.2197686601842887</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1419338864095456</v>
+        <v>0.1440983737881492</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2329825258296347</v>
+        <v>0.2291414330976483</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02576043055006659</v>
+        <v>0.02893469573228307</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03709722723191551</v>
+        <v>0.03693601882177094</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07746502868842967</v>
+        <v>0.07541361328131414</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03629634800701597</v>
+        <v>0.03654663442282893</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.09166670681364512</v>
+        <v>0.08510326100762305</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08885429818834455</v>
+        <v>0.08728419890055736</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1112329913570625</v>
+        <v>0.1139121954825419</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02083079933440085</v>
+        <v>0.02082889154748578</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05617505666638573</v>
+        <v>0.05711321992818184</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04201450160659529</v>
+        <v>0.04299198273708546</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05275218273611335</v>
+        <v>0.05254542625891736</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01356837738883439</v>
+        <v>0.013115065822229</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02377868730981108</v>
+        <v>0.0235095194942786</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01911277880834345</v>
+        <v>0.01961277034584991</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01821013809309022</v>
+        <v>0.01770393335403058</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04469046371014141</v>
+        <v>0.04424853938299118</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03843859455892563</v>
+        <v>0.03764714817035992</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04355867076521501</v>
+        <v>0.04340118087128161</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03674828820616799</v>
+        <v>0.03563954085151135</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07988074296812979</v>
+        <v>0.08062639836874189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06337460894534534</v>
+        <v>0.06355244356145975</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07870500625156017</v>
+        <v>0.07939577571160231</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03372542226901754</v>
+        <v>0.03316107978998131</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04384011615651684</v>
+        <v>0.04492280028436867</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04335071837621476</v>
+        <v>0.04388652723146146</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03041123476691797</v>
+        <v>0.03016870303606109</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06093677067024072</v>
+        <v>0.06083661969048027</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05329397810830451</v>
+        <v>0.0537561094929815</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06409196143317945</v>
+        <v>0.06416118395734303</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9405</v>
+        <v>9146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10017</v>
+        <v>10641</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10958</v>
+        <v>11658</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="I6" s="6" t="n">
+        <v>2824</v>
+      </c>
+      <c r="J6" s="6" t="n">
         <v>2843</v>
       </c>
-      <c r="J6" s="6" t="n">
-        <v>2753</v>
-      </c>
       <c r="K6" s="6" t="n">
-        <v>1867</v>
+        <v>1908</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12831</v>
+        <v>12567</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>15356</v>
+        <v>15035</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16333</v>
+        <v>16079</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11415</v>
+        <v>11016</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27569</v>
+        <v>27230</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27978</v>
+        <v>28140</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28730</v>
+        <v>30122</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7356</v>
+        <v>5895</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12390</v>
+        <v>14959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14943</v>
+        <v>13932</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13158</v>
+        <v>12452</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12831</v>
+        <v>12429</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>33626</v>
+        <v>35180</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>36691</v>
+        <v>35542</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36122</v>
+        <v>36108</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>983</v>
+        <v>1071</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7548</v>
+        <v>7422</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5881</v>
+        <v>5901</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4340</v>
+        <v>4187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1131</v>
+        <v>1817</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3106</v>
+        <v>3172</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2863</v>
+        <v>2955</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2054</v>
+        <v>2122</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11220</v>
+        <v>11194</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11056</v>
+        <v>11408</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9055</v>
+        <v>8703</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9731</v>
+        <v>9440</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25347</v>
+        <v>25442</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19925</v>
+        <v>18809</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16519</v>
+        <v>16698</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7563</v>
+        <v>5992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12134</v>
+        <v>13286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14741</v>
+        <v>14574</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11992</v>
+        <v>12148</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12636</v>
+        <v>12182</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>31470</v>
+        <v>30837</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>27666</v>
+        <v>27812</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>24187</v>
+        <v>24154</v>
       </c>
     </row>
     <row r="12">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5879</v>
+        <v>5932</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13646</v>
+        <v>14697</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6233</v>
+        <v>6361</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9522</v>
+        <v>9317</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2252,22 +2252,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6598</v>
+        <v>6655</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15924</v>
+        <v>15707</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8420</v>
+        <v>8787</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9435</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18898</v>
+        <v>19578</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33343</v>
+        <v>34408</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20663</v>
+        <v>20500</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26057</v>
+        <v>25518</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5716</v>
+        <v>6291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6446</v>
+        <v>6678</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8552</v>
+        <v>7678</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4186</v>
+        <v>3980</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21026</v>
+        <v>20869</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36953</v>
+        <v>37113</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23403</v>
+        <v>25256</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26857</v>
+        <v>26278</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12731</v>
+        <v>12936</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36794</v>
+        <v>37178</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22561</v>
+        <v>22607</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20721</v>
+        <v>22214</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3018</v>
+        <v>2805</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1677</v>
+        <v>2090</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15375</v>
+        <v>14572</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>38931</v>
+        <v>37669</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>27912</v>
+        <v>28831</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>25991</v>
+        <v>25636</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31396</v>
+        <v>31218</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>66007</v>
+        <v>64735</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47247</v>
+        <v>46515</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45642</v>
+        <v>46068</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9058</v>
+        <v>8960</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8077</v>
+        <v>7881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14269</v>
+        <v>13625</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13758</v>
+        <v>16031</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36425</v>
+        <v>33424</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>69263</v>
+        <v>68288</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>54993</v>
+        <v>54403</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>55393</v>
+        <v>54811</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9107</v>
+        <v>8511</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9753</v>
+        <v>10396</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15333</v>
+        <v>15344</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1978</v>
+        <v>2110</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2336</v>
+        <v>2426</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5436</v>
+        <v>5797</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11862</v>
+        <v>11740</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>11460</v>
+        <v>11682</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19582</v>
+        <v>19480</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14072</v>
+        <v>13350</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24056</v>
+        <v>24160</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27330</v>
+        <v>27042</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35683</v>
+        <v>35185</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>12382</v>
+        <v>12535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9728</v>
+        <v>9560</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6549</v>
+        <v>6977</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>9411</v>
+        <v>9872</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>19485</v>
+        <v>20017</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>29721</v>
+        <v>28256</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>28874</v>
+        <v>29887</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>39573</v>
+        <v>40079</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2021</v>
+        <v>1988</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12758</v>
+        <v>12981</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7809</v>
+        <v>7423</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1425</v>
+        <v>1521</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1037</v>
+        <v>955</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5588</v>
+        <v>5570</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2956</v>
+        <v>2766</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>15967</v>
+        <v>15212</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>16270</v>
+        <v>16171</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3007</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11413</v>
+        <v>12075</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30425</v>
+        <v>30676</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22842</v>
+        <v>23190</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19999</v>
+        <v>19670</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5594</v>
+        <v>6283</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9768</v>
+        <v>9725</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19813</v>
+        <v>19288</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>12946</v>
+        <v>13035</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>36931</v>
+        <v>34286</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>37025</v>
+        <v>36371</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>23616</v>
+        <v>24185</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>39097</v>
+        <v>39094</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>114579</v>
+        <v>116493</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>83786</v>
+        <v>85735</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>86664</v>
+        <v>86324</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>14244</v>
+        <v>13768</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>27188</v>
+        <v>26880</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>16751</v>
+        <v>17190</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>50469</v>
+        <v>49066</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>138070</v>
+        <v>136704</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>120604</v>
+        <v>118121</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>109737</v>
+        <v>109340</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>68973</v>
+        <v>66892</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>162931</v>
+        <v>164452</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>126382</v>
+        <v>126737</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>129300</v>
+        <v>130435</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>35404</v>
+        <v>34812</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>50126</v>
+        <v>51364</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>37995</v>
+        <v>38464</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>84284</v>
+        <v>83612</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>188262</v>
+        <v>187952</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>167214</v>
+        <v>168664</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>161466</v>
+        <v>161641</v>
       </c>
     </row>
     <row r="32">
